--- a/exele время рабоы/Студия интерьеров.xlsx
+++ b/exele время рабоы/Студия интерьеров.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danil\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danil\OneDrive\Desktop\interior studio\exele время рабоы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{341EAE7D-25D4-40DA-B3F3-39B702FFECB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16643FF6-4C98-4A79-86E1-3B7C25626C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{07B84691-3F98-49BE-B45F-2F0A138F36E9}"/>
   </bookViews>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>N</t>
   </si>
@@ -79,6 +88,9 @@
   </si>
   <si>
     <t>общее время недели</t>
+  </si>
+  <si>
+    <t>исправление мелких ошибок + попуп</t>
   </si>
 </sst>
 </file>
@@ -86,7 +98,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[h]:mm"/>
+    <numFmt numFmtId="164" formatCode="[h]:mm"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -199,7 +211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,8 +248,14 @@
         <fgColor theme="6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -549,6 +567,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -559,16 +586,112 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -585,28 +708,11 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -614,73 +720,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,69 +729,57 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="27" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Accent3" xfId="6" builtinId="37"/>
-    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input" xfId="3" builtinId="20"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Акцент3" xfId="6" builtinId="37"/>
+    <cellStyle name="Ввод " xfId="3" builtinId="20"/>
+    <cellStyle name="Вычисление" xfId="4" builtinId="22"/>
+    <cellStyle name="Контрольная ячейка" xfId="5" builtinId="23"/>
+    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -768,9 +795,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -808,7 +835,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -914,7 +941,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1064,524 +1091,569 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B13C1C-A7ED-4F50-8380-55CCEDFE4617}">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="20"/>
-    <col min="2" max="4" width="9.140625" style="13"/>
-    <col min="5" max="5" width="9.140625" style="10"/>
-    <col min="6" max="8" width="9.140625" style="13"/>
-    <col min="9" max="9" width="9.140625" style="10"/>
-    <col min="10" max="10" width="9.140625" style="13"/>
-    <col min="11" max="11" width="9.140625" style="10"/>
-    <col min="12" max="12" width="9.140625" style="13"/>
-    <col min="13" max="13" width="9.140625" style="10"/>
-    <col min="14" max="14" width="9.140625" style="13"/>
-    <col min="15" max="15" width="9.140625" style="10"/>
-    <col min="16" max="16" width="9.140625" style="13"/>
-    <col min="17" max="17" width="9.140625" style="10"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="2"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="2"/>
+    <col min="15" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="14" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="14" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="16" t="s">
+      <c r="K1" s="54"/>
+      <c r="L1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="14" t="s">
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="S1" s="4" t="s">
+      <c r="Q1" s="54"/>
+      <c r="S1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="5"/>
-      <c r="U1" s="6"/>
-    </row>
-    <row r="2" spans="1:21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="9"/>
-      <c r="S2" s="7" t="s">
+      <c r="T1" s="39"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="61"/>
+    </row>
+    <row r="2" spans="1:22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="54"/>
+      <c r="S2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="8"/>
-    </row>
-    <row r="3" spans="1:21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="2" t="s">
+      <c r="T2" s="42"/>
+      <c r="V2" s="61"/>
+    </row>
+    <row r="3" spans="1:22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="3" t="s">
+      <c r="M3" s="58"/>
+      <c r="N3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="9"/>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="O3" s="58"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="54"/>
+      <c r="V3" s="61"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="54">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="11">
         <v>0.4993055555555555</v>
       </c>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="24" t="s">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="25"/>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="31"/>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="Q4" s="15"/>
+      <c r="V4" s="61"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="43"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="17"/>
+      <c r="V5" s="61"/>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
         <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="54">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="11">
         <v>0.26250000000000001</v>
       </c>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="24" t="s">
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="25"/>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="31"/>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="Q6" s="15"/>
+      <c r="V6" s="61"/>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="17"/>
+      <c r="V7" s="61"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
         <v>3</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="54">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="11">
         <v>0.23611111111111113</v>
       </c>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="24" t="s">
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="25"/>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="31"/>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="Q8" s="15"/>
+      <c r="V8" s="61"/>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="17"/>
+      <c r="V9" s="61"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
         <v>4</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="54">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="11">
         <v>0.19444444444444445</v>
       </c>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="24" t="s">
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="25"/>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="31"/>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="Q10" s="15"/>
+      <c r="V10" s="61"/>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="17"/>
+      <c r="V11" s="61"/>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
         <v>5</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="54">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="11">
         <v>0.19652777777777777</v>
       </c>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="24" t="s">
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q12" s="25"/>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="31"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="Q12" s="15"/>
+      <c r="V12" s="61"/>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="17"/>
+      <c r="V13" s="61"/>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
         <v>6</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="54">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="11">
         <v>0.1875</v>
       </c>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="24" t="s">
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q14" s="25"/>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="31"/>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
+      <c r="Q14" s="15"/>
+      <c r="V14" s="61"/>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="17"/>
+      <c r="V15" s="61"/>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
         <v>7</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="54">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="11">
         <v>0.15208333333333332</v>
       </c>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="24" t="s">
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q16" s="25"/>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="31"/>
-    </row>
-    <row r="18" spans="1:21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="47" t="s">
+      <c r="Q16" s="15"/>
+      <c r="V16" s="61"/>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
+      <c r="V17" s="61"/>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>8</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="11">
+        <v>9.6527777777777768E-2</v>
+      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S18" s="48"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="60">
+      <c r="S18" s="5"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="10">
         <f>SUM(L4:L18)</f>
-        <v>1.7284722222222224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="53"/>
+        <v>1.8250000000000002</v>
+      </c>
+      <c r="V18" s="61"/>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="61"/>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="61"/>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="62"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="R18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="L6:O7"/>
-    <mergeCell ref="L8:O9"/>
-    <mergeCell ref="L10:O11"/>
-    <mergeCell ref="L12:O13"/>
-    <mergeCell ref="P14:Q15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:E17"/>
-    <mergeCell ref="F16:I17"/>
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="P16:Q17"/>
-    <mergeCell ref="L14:O15"/>
-    <mergeCell ref="L16:O17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:E15"/>
-    <mergeCell ref="F14:I15"/>
-    <mergeCell ref="J14:K15"/>
-    <mergeCell ref="P10:Q11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:E13"/>
-    <mergeCell ref="F12:I13"/>
-    <mergeCell ref="J12:K13"/>
-    <mergeCell ref="P12:Q13"/>
-    <mergeCell ref="F8:I9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="P8:Q9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:I11"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="F6:I7"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:E9"/>
+  <mergeCells count="62">
+    <mergeCell ref="V1:V21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:E19"/>
+    <mergeCell ref="P18:Q19"/>
+    <mergeCell ref="L18:O19"/>
+    <mergeCell ref="F18:I19"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="A20:U21"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="A4:A5"/>
@@ -1598,6 +1670,44 @@
     <mergeCell ref="P1:Q3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="F6:I7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="F8:I9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="P8:Q9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:I11"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="F14:I15"/>
+    <mergeCell ref="J14:K15"/>
+    <mergeCell ref="P10:Q11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:E13"/>
+    <mergeCell ref="F12:I13"/>
+    <mergeCell ref="J12:K13"/>
+    <mergeCell ref="P12:Q13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:E17"/>
+    <mergeCell ref="F16:I17"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="P16:Q17"/>
+    <mergeCell ref="L16:O17"/>
+    <mergeCell ref="R18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="L6:O7"/>
+    <mergeCell ref="L8:O9"/>
+    <mergeCell ref="L10:O11"/>
+    <mergeCell ref="L12:O13"/>
+    <mergeCell ref="P14:Q15"/>
+    <mergeCell ref="L14:O15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/exele время рабоы/Студия интерьеров.xlsx
+++ b/exele время рабоы/Студия интерьеров.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danil\OneDrive\Desktop\interior studio\exele время рабоы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16643FF6-4C98-4A79-86E1-3B7C25626C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BAB5CE-CEB5-4C6C-9B3B-8965673860F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{07B84691-3F98-49BE-B45F-2F0A138F36E9}"/>
   </bookViews>
@@ -255,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -362,21 +362,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -572,6 +557,90 @@
         <color rgb="FF3F3F3F"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -586,58 +655,22 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -645,7 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -654,44 +687,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -708,7 +762,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -720,56 +774,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="27" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1091,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B13C1C-A7ED-4F50-8380-55CCEDFE4617}">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="P22" sqref="P22:Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1114,576 +1264,594 @@
     <col min="17" max="17" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="53" t="s">
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55" t="s">
+      <c r="K1" s="72"/>
+      <c r="L1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="53" t="s">
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="54"/>
-      <c r="S1" s="38" t="s">
+      <c r="Q1" s="58"/>
+      <c r="S1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="61"/>
-    </row>
-    <row r="2" spans="1:22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="54"/>
-      <c r="S2" s="41" t="s">
+      <c r="T1" s="34"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="4"/>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="87"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="60"/>
+      <c r="S2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="42"/>
-      <c r="V2" s="61"/>
+      <c r="T2" s="37"/>
+      <c r="V2" s="4"/>
     </row>
     <row r="3" spans="1:22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="57" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="59" t="s">
+      <c r="M3" s="43"/>
+      <c r="N3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54"/>
-      <c r="V3" s="61"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="62"/>
+      <c r="V3" s="4"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="11">
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="17">
         <v>0.4993055555555555</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="14" t="s">
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="15"/>
-      <c r="V4" s="61"/>
+      <c r="Q4" s="14"/>
+      <c r="V4" s="4"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17"/>
-      <c r="V5" s="61"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="56"/>
+      <c r="V5" s="4"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
+      <c r="A6" s="44">
         <v>2</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="11">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="17">
         <v>0.26250000000000001</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="14" t="s">
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="15"/>
-      <c r="V6" s="61"/>
+      <c r="Q6" s="14"/>
+      <c r="V6" s="4"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
-      <c r="V7" s="61"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="56"/>
+      <c r="V7" s="4"/>
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="11">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="17">
         <v>0.23611111111111113</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="14" t="s">
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="15"/>
-      <c r="V8" s="61"/>
+      <c r="Q8" s="14"/>
+      <c r="V8" s="4"/>
     </row>
     <row r="9" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
-      <c r="V9" s="61"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="56"/>
+      <c r="V9" s="4"/>
     </row>
     <row r="10" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="5">
         <v>4</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="11">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="17">
         <v>0.19444444444444445</v>
       </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="14" t="s">
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="15"/>
-      <c r="V10" s="61"/>
+      <c r="Q10" s="14"/>
+      <c r="V10" s="4"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
-      <c r="V11" s="61"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="56"/>
+      <c r="V11" s="4"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="5">
         <v>5</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="11">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="17">
         <v>0.19652777777777777</v>
       </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="14" t="s">
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q12" s="15"/>
-      <c r="V12" s="61"/>
+      <c r="Q12" s="14"/>
+      <c r="V12" s="4"/>
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="17"/>
-      <c r="V13" s="61"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="56"/>
+      <c r="V13" s="4"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="5">
         <v>6</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="11">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="17">
         <v>0.1875</v>
       </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="14" t="s">
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q14" s="15"/>
-      <c r="V14" s="61"/>
+      <c r="Q14" s="14"/>
+      <c r="V14" s="4"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="17"/>
-      <c r="V15" s="61"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="56"/>
+      <c r="V15" s="4"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="5">
         <v>7</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="11">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="17">
         <v>0.15208333333333332</v>
       </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="14" t="s">
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q16" s="15"/>
-      <c r="V16" s="61"/>
+      <c r="Q16" s="14"/>
+      <c r="V16" s="4"/>
     </row>
     <row r="17" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="17"/>
-      <c r="V17" s="61"/>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A17" s="6"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="56"/>
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="88"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="S18" s="46"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="51">
+        <f>SUM(L4:L18)</f>
+        <v>1.7284722222222224</v>
+      </c>
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="88"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="4"/>
+    </row>
+    <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="4"/>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="4"/>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>8</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="11">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="17">
         <v>9.6527777777777768E-2</v>
       </c>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="14" t="s">
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S18" s="5"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="10">
-        <f>SUM(L4:L18)</f>
-        <v>1.8250000000000002</v>
-      </c>
-      <c r="V18" s="61"/>
-    </row>
-    <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="61"/>
-    </row>
-    <row r="20" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="63"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="63"/>
-      <c r="V20" s="61"/>
-    </row>
-    <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="62"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="63"/>
-      <c r="V21" s="61"/>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="V1:V21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:E19"/>
-    <mergeCell ref="P18:Q19"/>
-    <mergeCell ref="L18:O19"/>
-    <mergeCell ref="F18:I19"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="A20:U21"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="P4:Q5"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="F4:I5"/>
-    <mergeCell ref="L4:O5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:E3"/>
-    <mergeCell ref="F1:I3"/>
-    <mergeCell ref="J1:K3"/>
-    <mergeCell ref="L1:O2"/>
-    <mergeCell ref="P1:Q3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="F6:I7"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="F8:I9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="P8:Q9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:I11"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:E9"/>
+  <mergeCells count="63">
+    <mergeCell ref="P22:Q23"/>
+    <mergeCell ref="L14:O15"/>
+    <mergeCell ref="L12:O13"/>
+    <mergeCell ref="P14:Q15"/>
+    <mergeCell ref="A18:Q19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="F22:I23"/>
+    <mergeCell ref="J22:K23"/>
+    <mergeCell ref="L22:O23"/>
+    <mergeCell ref="R18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:E17"/>
+    <mergeCell ref="F16:I17"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="P16:Q17"/>
+    <mergeCell ref="L16:O17"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:E15"/>
     <mergeCell ref="F14:I15"/>
@@ -1694,20 +1862,41 @@
     <mergeCell ref="F12:I13"/>
     <mergeCell ref="J12:K13"/>
     <mergeCell ref="P12:Q13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:E17"/>
-    <mergeCell ref="F16:I17"/>
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="P16:Q17"/>
-    <mergeCell ref="L16:O17"/>
-    <mergeCell ref="R18:T19"/>
-    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="L10:O11"/>
+    <mergeCell ref="F8:I9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="P8:Q9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:I11"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="L8:O9"/>
+    <mergeCell ref="P1:Q3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="F6:I7"/>
+    <mergeCell ref="J6:K7"/>
     <mergeCell ref="L6:O7"/>
-    <mergeCell ref="L8:O9"/>
-    <mergeCell ref="L10:O11"/>
-    <mergeCell ref="L12:O13"/>
-    <mergeCell ref="P14:Q15"/>
-    <mergeCell ref="L14:O15"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:E3"/>
+    <mergeCell ref="F1:I3"/>
+    <mergeCell ref="J1:K3"/>
+    <mergeCell ref="L1:O2"/>
+    <mergeCell ref="V1:V21"/>
+    <mergeCell ref="A20:U21"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="F4:I5"/>
+    <mergeCell ref="L4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
